--- a/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
@@ -954,6 +954,9 @@
       <c r="C61" t="str">
         <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
       </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1015,7 +1018,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019100</v>
+        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -955,12 +955,181 @@
         <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
       </c>
       <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8</v>
+      </c>
+      <c r="C62" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F62" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>9</v>
+      </c>
+      <c r="C65" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>10</v>
+      </c>
+      <c r="C67" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
         <v>1</v>
+      </c>
+      <c r="C70" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F72" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>818_八卦草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1018,7 +1187,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019101</v>
+        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019101020201010102210105103010101040101015150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
@@ -1126,6 +1126,9 @@
       <c r="C81" t="str">
         <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
       </c>
+      <c r="F81" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1187,7 +1190,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019101020201010102210105103010101040101015150</v>
+        <v>051055101010815151040510101812514101040151062020153030301010101010151515555101010101010101086121510110191010202010101022101051030101010401010151515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,9 +1130,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2</v>
+      </c>
+      <c r="C82" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>3</v>
+      </c>
+      <c r="C86" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F86" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>717_银莲玫红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1190,7 +1273,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051055101010815151040510101812514101040151062020153030301010101010151515555101010101010101086121510110191010202010101022101051030101010401010151515</v>
+        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019101020201010102210105103010101040101015151591320151520101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1212,10 +1212,59 @@
       <c r="A91" t="str">
         <v>4</v>
       </c>
+      <c r="C91" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>5</v>
+      </c>
+      <c r="C93" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F94" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L96"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1273,7 +1322,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05105510101081515104051010181251410104015106202015303030101010101015151555510101010101010108612151011019101020201010102210105103010101040101015151591320151520101050</v>
+        <v>051055101010815151040510101812514101040151062020153030301010101010151515555101010101010101086121510110191010202010101022101051030101010401010151515913201515201010510131051517</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-8.xlsx
@@ -1324,6 +1324,9 @@
       <c r="G2" t="str">
         <v>051055101010815151040510101812514101040151062020153030301010101010151515555101010101010101086121510110191010202010101022101051030101010401010151515913201515201010510131051517</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
